--- a/docs/data_analysis_checklist.xlsx
+++ b/docs/data_analysis_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\elwood.nist.gov\732\internal\IAQ\EPA Shower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D7D02FBA-4363-4684-B249-2840A0D38E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC49C70F-EF8D-4430-9FEE-33E1A3001576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CDBE28BE-E95A-4244-9A87-74230762DC7E}"/>
+    <workbookView xWindow="19050" yWindow="0" windowWidth="19440" windowHeight="20880" xr2:uid="{CDBE28BE-E95A-4244-9A87-74230762DC7E}"/>
   </bookViews>
   <sheets>
     <sheet name="table-a377c446-1927-4eee-9093-2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -88,24 +88,6 @@
     <t>Data Ingestion &amp; Pre‑Processing</t>
   </si>
   <si>
-    <t>Write a generic loader (load_data.py) that reads CSV/TXT files from the locations listed in Data Analysis.docx (CO₂, QuantAQ, DAQ, logs) and returns a pandas.DataFrame with a unified datetime index.</t>
-  </si>
-  <si>
-    <t>Use the paths in the DOCX (I:\EPA Shower\…) as reference .</t>
-  </si>
-  <si>
-    <t>Validate raw files for duplicates, missing timestamps, and obvious outliers; log any problems.</t>
-  </si>
-  <si>
-    <t>Create a simple quality‑control report (e.g., qc_report.txt).</t>
-  </si>
-  <si>
-    <t>Resample all series to a common frequency (e.g., 10 s) and interpolate where appropriate.</t>
-  </si>
-  <si>
-    <t>Choose pd.DataFrame.resample(&amp;#39;10S&amp;#39;).interpolate() or similar.</t>
-  </si>
-  <si>
     <t>Merge Aranet CO₂ files (Bedroom, Entry, Outside) into a single DataFrame with columns C_bedroom, C_entry, C_outside.</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
   </si>
   <si>
     <t>Use the 0.7‑0.9 target range noted in the DOCX .</t>
-  </si>
-  <si>
-    <t>Create derived flags (shower_on, shower_off, fan_off) from the log timestamps.</t>
   </si>
   <si>
     <t>Parse Log - Shower and Log - CO2 Injection.</t>
@@ -269,6 +248,9 @@
 • Summarizes methodology (including the numerical “purple” equations).
 • Presents all key statistics and uncertainties.
 • Discusses any data‑quality issues.</t>
+  </si>
+  <si>
+    <t>Create derived flags from the log timestamps.</t>
   </si>
 </sst>
 </file>
@@ -777,11 +759,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1158,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718763CD-0552-4F71-B2D1-4F47F3AD3680}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,20 +1155,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1268,54 +1250,50 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1323,10 +1301,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1334,72 +1312,72 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1407,61 +1385,61 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,50 +1447,50 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,50 +1498,50 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,124 +1549,95 @@
         <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
